--- a/PublicTools/econfigs/1_StatData.xlsx
+++ b/PublicTools/econfigs/1_StatData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAE04FE3-0398-4FB6-8470-C8A38F7EBBD5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE85E91-1764-2047-984E-50A43D9929D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
@@ -15,8 +15,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="T15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+硬直指的是短暂的不能移动不能攻击的状态，其动作会僵硬在当前动作，硬直结束后会恢复</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="162">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -174,9 +210,6 @@
   <si>
     <t>命中</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>StatName_20</t>
   </si>
   <si>
     <t>WordKey</t>
@@ -431,12 +464,337 @@
     <t>单位是厘米，具体作用参见怪物AI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称Eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称Chn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用及说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATTACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEFENSE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分之多少几率造成暴击，同样作用于伤害类技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DODGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全闪避伤害的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CRIT_DAMAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击时造成平时百分之多少的伤害，100表示不变，200表示翻倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MOVE_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒移动几米的距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATK_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒普通攻击多少下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAST_SPEED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>施法速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按百分比减少施法读条时间，80表示省掉了80%的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家瞬发，这个给怪物有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT_BACK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击击退</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标时，使目标后退的距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT_IMMOB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击硬直</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标时，使目标硬直的时间（秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT_BURN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击燃烧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标时，使目标进入燃烧状态的几率（默认为3秒，DPS=50%攻击）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT_FREEZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击冰冻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>击中目标时，使目标进入冰冻状态的几率（默认为2秒）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAIN_HP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP吸取率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使普攻和技能造成的伤害按照此百分比转化为自身的HP，30表示30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DRAIN_MP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP吸取率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使普攻和技能造成的伤害按照此百分比转化为自身的MP，30表示30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS_BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对boss造成额外的伤害，200表示增加200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VS_ELITE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精英怪伤害加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对精英怪造成额外的伤害，200表示增加200%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100命中对0闪避就是正好100%命中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VISUAL_RANGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家视野全屏，这个可以给怪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>策划表备注：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatName_20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StatName_21</t>
+  </si>
+  <si>
+    <t>StatName_22</t>
+  </si>
+  <si>
+    <t>StatName_23</t>
+  </si>
+  <si>
+    <t>mp消耗减免比例 万分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加深被暴击的比例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,13 +834,34 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -497,12 +876,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -847,24 +1228,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.5" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>6</v>
@@ -877,25 +1258,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -903,16 +1284,19 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="N1" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -929,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -949,10 +1333,34 @@
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>81</v>
+      </c>
+      <c r="P3" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>83</v>
+      </c>
+      <c r="R3" t="s">
+        <v>84</v>
+      </c>
+      <c r="S3" t="s">
+        <v>85</v>
+      </c>
+      <c r="T3" t="s">
+        <v>86</v>
+      </c>
+      <c r="U3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -969,13 +1377,35 @@
         <v>-1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4" t="s">
+        <v>91</v>
+      </c>
+      <c r="T4" t="s">
+        <v>92</v>
+      </c>
+      <c r="U4"/>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -992,13 +1422,35 @@
         <v>-1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>90</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5" t="s">
+        <v>91</v>
+      </c>
+      <c r="T5" t="s">
+        <v>95</v>
+      </c>
+      <c r="U5"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1015,13 +1467,35 @@
         <v>-1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>90</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6" t="s">
+        <v>91</v>
+      </c>
+      <c r="T6" t="s">
+        <v>98</v>
+      </c>
+      <c r="U6"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1038,13 +1512,35 @@
         <v>-1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>90</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7" t="s">
+        <v>91</v>
+      </c>
+      <c r="T7" t="s">
+        <v>101</v>
+      </c>
+      <c r="U7"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1061,10 +1557,32 @@
         <v>10000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>104</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>100</v>
+      </c>
+      <c r="T8" t="s">
+        <v>105</v>
+      </c>
+      <c r="U8"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1081,10 +1599,32 @@
         <v>7500</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>104</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>75</v>
+      </c>
+      <c r="T9" t="s">
+        <v>108</v>
+      </c>
+      <c r="U9"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1101,10 +1641,32 @@
         <v>100000</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>104</v>
+      </c>
+      <c r="R10">
+        <v>150</v>
+      </c>
+      <c r="S10">
+        <v>1000</v>
+      </c>
+      <c r="T10" t="s">
+        <v>111</v>
+      </c>
+      <c r="U10"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1121,10 +1683,32 @@
         <v>3000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="N11">
+        <v>8</v>
+      </c>
+      <c r="O11" t="s">
+        <v>112</v>
+      </c>
+      <c r="P11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>104</v>
+      </c>
+      <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>30</v>
+      </c>
+      <c r="T11" t="s">
+        <v>114</v>
+      </c>
+      <c r="U11"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1141,10 +1725,32 @@
         <v>5000</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="N12">
+        <v>9</v>
+      </c>
+      <c r="O12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>104</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>10</v>
+      </c>
+      <c r="T12" t="s">
+        <v>117</v>
+      </c>
+      <c r="U12"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1161,10 +1767,34 @@
         <v>10000</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="N13">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>118</v>
+      </c>
+      <c r="P13" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>104</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>100</v>
+      </c>
+      <c r="T13" t="s">
+        <v>120</v>
+      </c>
+      <c r="U13" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -1181,10 +1811,32 @@
         <v>1000</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="N14" s="6">
+        <v>11</v>
+      </c>
+      <c r="O14" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="P14" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>104</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14" t="s">
+        <v>124</v>
+      </c>
+      <c r="U14"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
@@ -1201,10 +1853,32 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="N15" s="6">
+        <v>12</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="P15" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>104</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>127</v>
+      </c>
+      <c r="U15"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -1221,10 +1895,32 @@
         <v>10000</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="N16" s="6">
+        <v>13</v>
+      </c>
+      <c r="O16" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>104</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>100</v>
+      </c>
+      <c r="T16" t="s">
+        <v>130</v>
+      </c>
+      <c r="U16"/>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1241,10 +1937,32 @@
         <v>10000</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="N17" s="6">
+        <v>14</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>104</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>100</v>
+      </c>
+      <c r="T17" t="s">
+        <v>133</v>
+      </c>
+      <c r="U17"/>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1261,10 +1979,32 @@
         <v>10000</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="N18">
+        <v>15</v>
+      </c>
+      <c r="O18" t="s">
+        <v>134</v>
+      </c>
+      <c r="P18" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>104</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>100</v>
+      </c>
+      <c r="T18" t="s">
+        <v>136</v>
+      </c>
+      <c r="U18"/>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1281,10 +2021,32 @@
         <v>5000</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="N19">
+        <v>16</v>
+      </c>
+      <c r="O19" t="s">
+        <v>137</v>
+      </c>
+      <c r="P19" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>104</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>50</v>
+      </c>
+      <c r="T19" t="s">
+        <v>139</v>
+      </c>
+      <c r="U19"/>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1301,10 +2063,32 @@
         <v>50000</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="N20">
+        <v>17</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>104</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>500</v>
+      </c>
+      <c r="T20" t="s">
+        <v>142</v>
+      </c>
+      <c r="U20"/>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1321,10 +2105,32 @@
         <v>50000</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="N21">
+        <v>18</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>104</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>500</v>
+      </c>
+      <c r="T21" t="s">
+        <v>145</v>
+      </c>
+      <c r="U21"/>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="2" t="s">
         <v>49</v>
       </c>
@@ -1341,10 +2147,32 @@
         <v>100000</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="N22">
+        <v>19</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22">
+        <v>100</v>
+      </c>
+      <c r="S22">
+        <v>1000</v>
+      </c>
+      <c r="T22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U22"/>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1352,7 +2180,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>155</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -1361,7 +2189,91 @@
         <v>20000</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+      <c r="N23">
+        <v>20</v>
+      </c>
+      <c r="O23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>104</v>
+      </c>
+      <c r="R23">
+        <v>20</v>
+      </c>
+      <c r="S23">
+        <v>200</v>
+      </c>
+      <c r="T23" t="s">
+        <v>151</v>
+      </c>
+      <c r="U23" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1373,5 +2285,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PublicTools/econfigs/1_StatData.xlsx
+++ b/PublicTools/econfigs/1_StatData.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE85E91-1764-2047-984E-50A43D9929D7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6EDE2-E9C5-AD4B-9BA2-6F4E6B4AF315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,44 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="T15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-硬直指的是短暂的不能移动不能攻击的状态，其动作会僵硬在当前动作，硬直结束后会恢复</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,33 +80,12 @@
     <t>攻击速度</t>
   </si>
   <si>
-    <t>施法速度</t>
-  </si>
-  <si>
-    <t>攻击击退</t>
-  </si>
-  <si>
-    <t>攻击硬直</t>
-  </si>
-  <si>
-    <t>攻击燃烧</t>
-  </si>
-  <si>
-    <t>攻击冰冻</t>
-  </si>
-  <si>
     <t>HP吸取率</t>
   </si>
   <si>
     <t>MP吸取率</t>
   </si>
   <si>
-    <t>BOSS伤害加成</t>
-  </si>
-  <si>
-    <t>精英怪伤害加成</t>
-  </si>
-  <si>
     <t>StatName_01</t>
   </si>
   <si>
@@ -170,33 +113,12 @@
     <t>StatName_09</t>
   </si>
   <si>
-    <t>StatName_10</t>
-  </si>
-  <si>
-    <t>StatName_11</t>
-  </si>
-  <si>
-    <t>StatName_12</t>
-  </si>
-  <si>
-    <t>StatName_13</t>
-  </si>
-  <si>
-    <t>StatName_14</t>
-  </si>
-  <si>
     <t>StatName_15</t>
   </si>
   <si>
     <t>StatName_16</t>
   </si>
   <si>
-    <t>StatName_17</t>
-  </si>
-  <si>
-    <t>StatName_18</t>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,13 +127,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>StatName_19</t>
-  </si>
-  <si>
-    <t>命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>WordKey</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -244,6 +159,50 @@
     <t>时间 ms</t>
   </si>
   <si>
+    <t>完全闪避伤害的属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分之多少几率造成暴击，同样作用于伤害类技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使普攻和技能造成的伤害按照此百分比转化为自身的HP，30表示30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使普攻和技能造成的伤害按照此百分比转化为自身的MP，30表示30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>暴击时造成平时百分之多少的伤害，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10000</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -252,7 +211,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>按百分比减少施法读条时间，</t>
+      <t>表示不变，</t>
     </r>
     <r>
       <rPr>
@@ -261,7 +220,7 @@
         <rFont val="Consolas"/>
         <family val="3"/>
       </rPr>
-      <t>8000</t>
+      <t>20000</t>
     </r>
     <r>
       <rPr>
@@ -271,27 +230,112 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>表示省掉了</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>80%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的时间</t>
-    </r>
+      <t>表示翻倍</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒移动几cm的距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒普通攻击多少下(按照1000倍计算保证精度足够)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位是厘米，具体作用参见怪物AI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称Eng</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称Chn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作用及说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础防御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分之多少几率造成暴击，同样作用于伤害类技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -299,292 +343,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>百分之多少几率造成暴击，同样作用于伤害类技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标时，使目标硬直的时间（秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标时，使目标进入燃烧状态的几率（默认为3秒，DPS=50%攻击）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标时，使目标进入冰冻状态的几率（默认为2秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使普攻和技能造成的伤害按照此百分比转化为自身的HP，30表示30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>使普攻和技能造成的伤害按照此百分比转化为自身的MP，30表示30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对boss造成额外的伤害，200表示增加200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对精英怪造成额外的伤害，200表示增加200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>100</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中和</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>闪避表示正好</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>100%</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>命中不会miss</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>暴击时造成平时百分之多少的伤害，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示不变，</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>20000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>表示翻倍</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒移动几cm的距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标时，使目标后退的距离（厘米）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每秒普通攻击多少下(按照1000倍计算保证精度足够)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单位是厘米，具体作用参见怪物AI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称Eng</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称Chn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>初始值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>作用及说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ATTACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEFENSE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础防御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>魔法值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>float</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百分之多少几率造成暴击，同样作用于伤害类技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DODGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全闪避伤害的属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CRIT_DAMAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>暴击伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MOVE_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>移动速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -605,10 +359,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ATK_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击速度</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -617,130 +367,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CAST_SPEED</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>施法速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按百分比减少施法读条时间，80表示省掉了80%的时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家瞬发，这个给怪物有用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT_BACK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击击退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标时，使目标后退的距离</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT_IMMOB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击硬直</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标时，使目标硬直的时间（秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT_BURN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击燃烧</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标时，使目标进入燃烧状态的几率（默认为3秒，DPS=50%攻击）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT_FREEZE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击冰冻</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>击中目标时，使目标进入冰冻状态的几率（默认为2秒）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAIN_HP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HP吸取率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使普攻和技能造成的伤害按照此百分比转化为自身的HP，30表示30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DRAIN_MP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP吸取率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>使普攻和技能造成的伤害按照此百分比转化为自身的MP，30表示30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VS_BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS伤害加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对boss造成额外的伤害，200表示增加200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VS_ELITE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精英怪伤害加成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对精英怪造成额外的伤害，200表示增加200%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HIT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100命中对0闪避就是正好100%命中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>VISUAL_RANGE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -788,13 +422,365 @@
   <si>
     <t>万分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Damage = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//伤害</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Defance = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//防御</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MaxHP =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//HP</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MaxMP= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//魔法上限</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Crt =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//暴击率</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dodge =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//闪避 dodge</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CrtDamageRate = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//暴击伤害倍数 万分比</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MoveSpeed = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//移动速度 cm/s</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AttackSpeed = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">//攻击速度 次数秒 * 1000 </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">HpDrain = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> ;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//Hp 吸取等级 万分比</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MpDrain= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF79B8FF"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFE1E4E8"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF6A737D"/>
+        <rFont val="Courier New"/>
+        <family val="1"/>
+      </rPr>
+      <t>//MP 吸取等级 万分比</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -835,19 +821,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color rgb="FFE1E4E8"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <sz val="12"/>
+      <color rgb="FF79B8FF"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF6A737D"/>
+      <name val="Courier New"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -883,7 +872,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -902,9 +891,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -942,9 +931,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,26 +966,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1029,26 +1001,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1239,13 +1194,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>6</v>
@@ -1258,22 +1213,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="1" max="1" width="25.1640625" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.83203125" style="2" customWidth="1"/>
     <col min="3" max="3" width="14.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="2"/>
+    <col min="4" max="14" width="9" style="2"/>
+    <col min="15" max="15" width="29" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21">
@@ -1284,16 +1241,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>153</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:21">
@@ -1321,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>7</v>
@@ -1333,34 +1290,34 @@
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="N3" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="O3" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="P3" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="R3" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="S3" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="T3" t="s">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="U3" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" ht="17">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1368,7 +1325,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2">
         <v>0</v>
@@ -1377,35 +1334,35 @@
         <v>-1</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
-      <c r="O4" s="5" t="s">
-        <v>88</v>
+      <c r="O4" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="Q4" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="T4" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="U4"/>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" ht="17">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -1413,7 +1370,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2">
         <v>0</v>
@@ -1422,35 +1379,35 @@
         <v>-1</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
-      <c r="O5" s="5" t="s">
-        <v>93</v>
+      <c r="O5" s="6" t="s">
+        <v>101</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="Q5" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="T5" t="s">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="U5"/>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" ht="17">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -1458,7 +1415,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0</v>
@@ -1467,35 +1424,35 @@
         <v>-1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>3</v>
       </c>
-      <c r="O6" s="5" t="s">
-        <v>96</v>
+      <c r="O6" s="6" t="s">
+        <v>102</v>
       </c>
       <c r="P6" s="5" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="Q6" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="R6">
         <v>0</v>
       </c>
       <c r="S6" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="T6" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="U6"/>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" ht="17">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -1503,7 +1460,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D7" s="2">
         <v>0</v>
@@ -1512,35 +1469,35 @@
         <v>-1</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
-      <c r="O7" s="5" t="s">
-        <v>99</v>
+      <c r="O7" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="P7" s="5" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="Q7" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="R7">
         <v>0</v>
       </c>
       <c r="S7" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="T7" t="s">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="U7"/>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" ht="17">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1548,7 +1505,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>0</v>
@@ -1557,19 +1514,19 @@
         <v>10000</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>5</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>102</v>
+      <c r="O8" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="Q8" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="R8">
         <v>0</v>
@@ -1578,11 +1535,11 @@
         <v>100</v>
       </c>
       <c r="T8" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="U8"/>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" ht="17">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -1590,7 +1547,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>0</v>
@@ -1599,19 +1556,19 @@
         <v>7500</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="N9">
         <v>6</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>106</v>
+      <c r="O9" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="P9" s="5" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="Q9" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="R9">
         <v>0</v>
@@ -1620,11 +1577,11 @@
         <v>75</v>
       </c>
       <c r="T9" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" ht="17">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
@@ -1632,7 +1589,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
         <v>15000</v>
@@ -1641,19 +1598,19 @@
         <v>100000</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="N10">
         <v>7</v>
       </c>
-      <c r="O10" s="5" t="s">
-        <v>109</v>
+      <c r="O10" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="Q10" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="R10">
         <v>150</v>
@@ -1662,11 +1619,11 @@
         <v>1000</v>
       </c>
       <c r="T10" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="U10"/>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" ht="17">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
@@ -1674,7 +1631,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1683,19 +1640,19 @@
         <v>3000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="N11">
         <v>8</v>
       </c>
-      <c r="O11" t="s">
-        <v>112</v>
+      <c r="O11" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="Q11" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="R11">
         <v>5</v>
@@ -1704,11 +1661,11 @@
         <v>30</v>
       </c>
       <c r="T11" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="U11"/>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" ht="17">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -1716,7 +1673,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1725,19 +1682,19 @@
         <v>5000</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="N12">
         <v>9</v>
       </c>
-      <c r="O12" t="s">
-        <v>115</v>
+      <c r="O12" s="6" t="s">
+        <v>108</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="Q12" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="R12">
         <v>1</v>
@@ -1746,19 +1703,19 @@
         <v>10</v>
       </c>
       <c r="T12" t="s">
-        <v>117</v>
+        <v>84</v>
       </c>
       <c r="U12"/>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" ht="18" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -1767,19 +1724,19 @@
         <v>10000</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>10</v>
       </c>
-      <c r="O13" t="s">
-        <v>118</v>
+      <c r="O13" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="Q13" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="R13">
         <v>0</v>
@@ -1788,105 +1745,105 @@
         <v>100</v>
       </c>
       <c r="T13" t="s">
-        <v>120</v>
-      </c>
-      <c r="U13" t="s">
-        <v>121</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="U13"/>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" ht="17">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="2">
+        <v>16</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14">
         <v>11</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0</v>
-      </c>
-      <c r="E14" s="2">
-        <v>1000</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="N14" s="6">
-        <v>11</v>
-      </c>
       <c r="O14" s="6" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="P14" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="Q14" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="R14">
         <v>0</v>
       </c>
       <c r="S14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T14" t="s">
-        <v>124</v>
+        <v>50</v>
       </c>
       <c r="U14"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="D15" s="2">
         <v>0</v>
       </c>
       <c r="E15" s="2">
-        <v>1</v>
+        <v>20000</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="6">
-        <v>12</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>125</v>
+        <v>55</v>
+      </c>
+      <c r="N15">
+        <v>20</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="Q15" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="T15" t="s">
-        <v>127</v>
-      </c>
-      <c r="U15"/>
+        <v>89</v>
+      </c>
+      <c r="U15" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
       <c r="B16" s="2">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
@@ -1894,41 +1851,19 @@
       <c r="E16" s="2">
         <v>10000</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="N16" s="6">
-        <v>13</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="P16" t="s">
-        <v>129</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>104</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>100</v>
-      </c>
-      <c r="T16" t="s">
-        <v>130</v>
-      </c>
-      <c r="U16"/>
+      <c r="G16" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B17" s="2">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1936,41 +1871,19 @@
       <c r="E17" s="2">
         <v>10000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N17" s="6">
-        <v>14</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="P17" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>104</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>100</v>
-      </c>
-      <c r="T17" t="s">
-        <v>133</v>
-      </c>
-      <c r="U17"/>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B18" s="2">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -1978,302 +1891,8 @@
       <c r="E18" s="2">
         <v>10000</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="N18">
-        <v>15</v>
-      </c>
-      <c r="O18" t="s">
-        <v>134</v>
-      </c>
-      <c r="P18" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>104</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>100</v>
-      </c>
-      <c r="T18" t="s">
-        <v>136</v>
-      </c>
-      <c r="U18"/>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5000</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="N19">
-        <v>16</v>
-      </c>
-      <c r="O19" t="s">
-        <v>137</v>
-      </c>
-      <c r="P19" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>104</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>50</v>
-      </c>
-      <c r="T19" t="s">
-        <v>139</v>
-      </c>
-      <c r="U19"/>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="N20">
-        <v>17</v>
-      </c>
-      <c r="O20" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>104</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>500</v>
-      </c>
-      <c r="T20" t="s">
-        <v>142</v>
-      </c>
-      <c r="U20"/>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="A21" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0</v>
-      </c>
-      <c r="E21" s="2">
-        <v>50000</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="N21">
-        <v>18</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>104</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>500</v>
-      </c>
-      <c r="T21" t="s">
-        <v>145</v>
-      </c>
-      <c r="U21"/>
-    </row>
-    <row r="22" spans="1:21">
-      <c r="A22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="2">
-        <v>10000</v>
-      </c>
-      <c r="E22" s="2">
-        <v>100000</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N22">
-        <v>19</v>
-      </c>
-      <c r="O22" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="P22" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>104</v>
-      </c>
-      <c r="R22">
-        <v>100</v>
-      </c>
-      <c r="S22">
-        <v>1000</v>
-      </c>
-      <c r="T22" t="s">
-        <v>148</v>
-      </c>
-      <c r="U22"/>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0</v>
-      </c>
-      <c r="E23" s="2">
-        <v>20000</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="N23">
-        <v>20</v>
-      </c>
-      <c r="O23" t="s">
-        <v>149</v>
-      </c>
-      <c r="P23" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>104</v>
-      </c>
-      <c r="R23">
-        <v>20</v>
-      </c>
-      <c r="S23">
-        <v>200</v>
-      </c>
-      <c r="T23" t="s">
-        <v>151</v>
-      </c>
-      <c r="U23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
-      <c r="A24" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0</v>
-      </c>
-      <c r="E24" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
-      <c r="A25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B25" s="2">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0</v>
-      </c>
-      <c r="E25" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0</v>
-      </c>
-      <c r="E26" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>161</v>
+      <c r="G18" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2285,6 +1904,5 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/PublicTools/econfigs/1_StatData.xlsx
+++ b/PublicTools/econfigs/1_StatData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10514"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A6EDE2-E9C5-AD4B-9BA2-6F4E6B4AF315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB2EE817-1222-574C-82A5-5DE5518FBEBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11,12 +11,12 @@
     <sheet name="__Base" sheetId="2" r:id="rId1"/>
     <sheet name="StatData" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="115">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,355 +424,88 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Damage = 1;//伤害</t>
+  </si>
+  <si>
+    <t>Defance = 2 ;//防御</t>
+  </si>
+  <si>
+    <t>MaxHP =3;//HP</t>
+  </si>
+  <si>
+    <t>MaxMP= 4;//魔法上限</t>
+  </si>
+  <si>
+    <t>Crt =5;//暴击率</t>
+  </si>
+  <si>
+    <t>Dodge =6 ;//闪避 dodge</t>
+  </si>
+  <si>
+    <t>CrtDamageRate = 7;//暴击伤害倍数 万分比</t>
+  </si>
+  <si>
+    <t>MoveSpeed = 8;//移动速度 cm/s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AttackSpeed = 9 ; //攻击速度 次数秒 * 1000 </t>
+  </si>
+  <si>
+    <t>HpDrain = 10 ;//Hp 吸取等级 万分比</t>
+  </si>
+  <si>
+    <t>MpDrain= 11; //MP 吸取等级 万分比</t>
+  </si>
+  <si>
+    <t>Hit = 12;//命中</t>
+  </si>
+  <si>
+    <t>命中</t>
+  </si>
+  <si>
+    <t>StatName_19</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Damage = </t>
+      <t>100命中和</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
-      <t>1</t>
+      <t>0</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t>;</t>
+      <t>闪避表示正好</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="2"/>
       </rPr>
-      <t>//伤害</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Defance = </t>
+      <t>100%</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+        <family val="3"/>
+        <charset val="134"/>
       </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>//防御</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>MaxHP =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>//HP</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MaxMP= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>4</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>//魔法上限</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Crt =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>//暴击率</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Dodge =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>//闪避 dodge</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CrtDamageRate = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>7</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>//暴击伤害倍数 万分比</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MoveSpeed = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>//移动速度 cm/s</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">AttackSpeed = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">//攻击速度 次数秒 * 1000 </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">HpDrain = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> ;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>//Hp 吸取等级 万分比</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">MpDrain= </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF79B8FF"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>11</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFE1E4E8"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF6A737D"/>
-        <rFont val="Courier New"/>
-        <family val="1"/>
-      </rPr>
-      <t>//MP 吸取等级 万分比</t>
+      <t>命中不会miss</t>
     </r>
   </si>
 </sst>
@@ -822,21 +555,22 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFE1E4E8"/>
+      <color theme="1"/>
       <name val="Courier New"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF79B8FF"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF6A737D"/>
-      <name val="Courier New"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -865,7 +599,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -873,6 +607,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1214,13 +950,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
@@ -1712,7 +1448,7 @@
         <v>19</v>
       </c>
       <c r="B13" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>30</v>
@@ -1754,7 +1490,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>31</v>
@@ -1791,79 +1527,97 @@
       </c>
       <c r="U14"/>
     </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="2" t="s">
-        <v>33</v>
+    <row r="15" spans="1:21" ht="17">
+      <c r="A15" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="B15" s="2">
-        <v>20</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0</v>
-      </c>
-      <c r="E15" s="2">
-        <v>20000</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>55</v>
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="7">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="7">
+        <v>100000</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>114</v>
       </c>
       <c r="N15">
-        <v>20</v>
-      </c>
-      <c r="O15" t="s">
-        <v>87</v>
-      </c>
-      <c r="P15" t="s">
-        <v>88</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="P15"/>
       <c r="Q15" t="s">
         <v>75</v>
       </c>
       <c r="R15">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="S15">
-        <v>200</v>
-      </c>
-      <c r="T15" t="s">
-        <v>89</v>
-      </c>
-      <c r="U15" t="s">
-        <v>90</v>
-      </c>
+        <v>10000</v>
+      </c>
+      <c r="T15"/>
+      <c r="U15"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="2">
         <v>0</v>
       </c>
       <c r="E16" s="2">
-        <v>10000</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>99</v>
+        <v>20000</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N16">
+        <v>20</v>
+      </c>
+      <c r="O16" t="s">
+        <v>87</v>
+      </c>
+      <c r="P16" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <v>200</v>
+      </c>
+      <c r="T16" t="s">
+        <v>89</v>
+      </c>
+      <c r="U16" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B17" s="2">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D17" s="2">
         <v>0</v>
@@ -1877,13 +1631,13 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B18" s="2">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D18" s="2">
         <v>0</v>
@@ -1892,6 +1646,26 @@
         <v>10000</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" s="2">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>10000</v>
+      </c>
+      <c r="G19" s="2" t="s">
         <v>99</v>
       </c>
     </row>
